--- a/Benefit/Benefit_2021.xlsx
+++ b/Benefit/Benefit_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Documents/PSTAT296B/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E180B1A8-24B4-C645-A582-9B50F47E2F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937AACEA-787A-EC4F-9FC7-2C40B03D324C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{E1123444-BDCF-4142-AB64-AF0379E0C72A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27780" windowHeight="15980" xr2:uid="{E1123444-BDCF-4142-AB64-AF0379E0C72A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="120">
   <si>
     <t>Contract_ID</t>
   </si>
@@ -161,9 +161,6 @@
     <t>In_Hearing_Exam</t>
   </si>
   <si>
-    <t>Out_Hearing_Min</t>
-  </si>
-  <si>
     <t>Out_Hearing_Exam_Max</t>
   </si>
   <si>
@@ -393,6 +390,12 @@
   </si>
   <si>
     <t>https://q1medicare.com/MedicareAdvantage-2021C-MedicareHealthPlanBenefits.php?state=CT&amp;source=2021MAFinder&amp;ZIP=&amp;countyCode=9003&amp;contractId=H5854&amp;planId=011&amp;segmentId=0&amp;plan=Anthem%20MediBlue%20Extra%20(HMO)%20-%20H5854-011-0&amp;utm_source=partd&amp;utm_medium=mafinder&amp;utm_campaign=enrollbutton</t>
+  </si>
+  <si>
+    <t>Out_Hearing_Exam_Min</t>
+  </si>
+  <si>
+    <t>https://q1medicare.com/PartD-2021StarRatingsPartCPartDOverall.php?state=CT&amp;source=2021MAFinder&amp;ZIP=&amp;countyCode=9005&amp;contractId=H3528&amp;planId=011&amp;segmentId=1&amp;plan=ConnectiCare%20Flex%20Plan%203%20(HMO-POS)%20-%20H3528-011-1&amp;utm_source=partd&amp;utm_medium=mafinder&amp;utm_campaign=startextlink&amp;utm_campaign=starimglink</t>
   </si>
 </sst>
 </file>
@@ -462,14 +465,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -785,13 +789,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3F02-9580-0548-B7AB-9B00204D8079}">
-  <dimension ref="A1:BX32"/>
+  <dimension ref="A1:BX33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -918,114 +941,114 @@
         <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1037,7 +1060,7 @@
         <v>2021</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -1070,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="1">
         <v>90</v>
@@ -1094,7 +1117,7 @@
         <v>50</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="1">
         <v>40</v>
@@ -1109,7 +1132,7 @@
         <v>50</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="1">
         <v>90</v>
@@ -1124,7 +1147,7 @@
         <v>220</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI2" s="1">
         <v>220</v>
@@ -1133,13 +1156,13 @@
         <v>220</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN2" s="2">
         <v>0.4</v>
@@ -1154,7 +1177,7 @@
         <v>50</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS2" s="1">
         <v>0</v>
@@ -1166,7 +1189,7 @@
         <v>47</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AW2" s="2">
         <v>0.45</v>
@@ -1250,12 +1273,12 @@
         <v>0</v>
       </c>
       <c r="BX2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1267,7 +1290,7 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1300,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
@@ -1324,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y3" s="1">
         <v>50</v>
@@ -1339,7 +1362,7 @@
         <v>50</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD3" s="1">
         <v>90</v>
@@ -1354,7 +1377,7 @@
         <v>280</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI3" s="1">
         <v>280</v>
@@ -1363,16 +1386,16 @@
         <v>280</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO3" s="1">
         <v>50</v>
@@ -1384,7 +1407,7 @@
         <v>50</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS3" s="1">
         <v>0</v>
@@ -1396,7 +1419,7 @@
         <v>35</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AW3" s="2">
         <v>0.48</v>
@@ -1480,12 +1503,12 @@
         <v>0</v>
       </c>
       <c r="BX3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -1497,7 +1520,7 @@
         <v>2021</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1">
         <v>25</v>
@@ -1530,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R4" s="1">
         <v>1</v>
@@ -1554,7 +1577,7 @@
         <v>35</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y4" s="1">
         <v>45</v>
@@ -1569,7 +1592,7 @@
         <v>60</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD4" s="1">
         <v>90</v>
@@ -1584,7 +1607,7 @@
         <v>295</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI4" s="1">
         <v>295</v>
@@ -1593,7 +1616,7 @@
         <v>295</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -1602,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO4" s="1">
         <v>45</v>
@@ -1614,7 +1637,7 @@
         <v>60</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS4" s="1">
         <v>4</v>
@@ -1629,7 +1652,7 @@
         <v>95</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX4" s="2">
         <v>0.31</v>
@@ -1710,12 +1733,12 @@
         <v>0</v>
       </c>
       <c r="BX4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1727,7 +1750,7 @@
         <v>2021</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1760,10 +1783,10 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
@@ -1784,7 +1807,7 @@
         <v>20</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y5" s="1">
         <v>35</v>
@@ -1799,7 +1822,7 @@
         <v>55</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD5" s="1">
         <v>90</v>
@@ -1814,7 +1837,7 @@
         <v>250</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI5" s="1">
         <v>250</v>
@@ -1823,7 +1846,7 @@
         <v>250</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL5" s="1">
         <v>0</v>
@@ -1832,7 +1855,7 @@
         <v>55</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO5" s="1">
         <v>0</v>
@@ -1843,8 +1866,8 @@
       <c r="AQ5" s="1">
         <v>55</v>
       </c>
-      <c r="AR5" s="1">
-        <v>0</v>
+      <c r="AR5" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="AS5" s="1">
         <v>0</v>
@@ -1859,7 +1882,7 @@
         <v>100</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX5" s="2">
         <v>0.33</v>
@@ -1940,12 +1963,12 @@
         <v>0</v>
       </c>
       <c r="BX5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1963,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1972,7 +1995,7 @@
         <v>6000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -1999,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -2014,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y6" s="1">
         <v>10</v>
@@ -2029,7 +2052,7 @@
         <v>10</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD6" s="1">
         <v>90</v>
@@ -2044,7 +2067,7 @@
         <v>50</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI6" s="1">
         <v>50</v>
@@ -2053,7 +2076,7 @@
         <v>50</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL6" s="1">
         <v>10</v>
@@ -2062,7 +2085,7 @@
         <v>0.1</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO6" s="1">
         <v>10</v>
@@ -2074,28 +2097,28 @@
         <v>10</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AZ6" s="1">
         <v>4</v>
@@ -2170,12 +2193,12 @@
         <v>0</v>
       </c>
       <c r="BX6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -2229,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T7" s="1">
         <v>15</v>
@@ -2244,7 +2267,7 @@
         <v>40</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y7" s="1">
         <v>30</v>
@@ -2259,7 +2282,7 @@
         <v>40</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD7" s="1">
         <v>90</v>
@@ -2274,7 +2297,7 @@
         <v>200</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI7" s="1">
         <v>200</v>
@@ -2283,16 +2306,16 @@
         <v>200</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL7" s="1">
         <v>30</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO7" s="1">
         <v>30</v>
@@ -2304,7 +2327,7 @@
         <v>40</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS7" s="1">
         <v>2</v>
@@ -2319,13 +2342,13 @@
         <v>95</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX7" s="2">
         <v>0.27</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AZ7" s="1">
         <v>0</v>
@@ -2400,12 +2423,12 @@
         <v>0</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
@@ -2432,7 +2455,7 @@
         <v>7550</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -2459,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T8" s="1">
         <v>25</v>
@@ -2474,7 +2497,7 @@
         <v>25</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y8" s="1">
         <v>50</v>
@@ -2489,7 +2512,7 @@
         <v>50</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD8" s="1">
         <v>90</v>
@@ -2504,7 +2527,7 @@
         <v>415</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI8" s="1">
         <v>415</v>
@@ -2513,7 +2536,7 @@
         <v>415</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL8" s="1">
         <v>45</v>
@@ -2522,7 +2545,7 @@
         <v>45</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO8" s="1">
         <v>50</v>
@@ -2534,7 +2557,7 @@
         <v>50</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS8" s="1">
         <v>2</v>
@@ -2549,13 +2572,13 @@
         <v>95</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX8" s="2">
         <v>0.28000000000000003</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AZ8" s="1">
         <v>0</v>
@@ -2630,12 +2653,12 @@
         <v>0</v>
       </c>
       <c r="BX8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1">
         <v>14</v>
@@ -2662,7 +2685,7 @@
         <v>7550</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -2689,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T9" s="1">
         <v>10</v>
@@ -2704,7 +2727,7 @@
         <v>10</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y9" s="1">
         <v>45</v>
@@ -2719,7 +2742,7 @@
         <v>45</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD9" s="1">
         <v>90</v>
@@ -2734,7 +2757,7 @@
         <v>385</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI9" s="1">
         <v>385</v>
@@ -2743,7 +2766,7 @@
         <v>385</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL9" s="1">
         <v>45</v>
@@ -2752,7 +2775,7 @@
         <v>45</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO9" s="1">
         <v>45</v>
@@ -2764,7 +2787,7 @@
         <v>45</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS9" s="1">
         <v>2</v>
@@ -2779,13 +2802,13 @@
         <v>95</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX9" s="2">
         <v>0.25</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AZ9" s="1">
         <v>4</v>
@@ -2860,12 +2883,12 @@
         <v>0</v>
       </c>
       <c r="BX9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -2877,7 +2900,7 @@
         <v>2021</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2904,16 +2927,16 @@
         <v>795</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
@@ -2934,7 +2957,7 @@
         <v>20</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y10" s="1">
         <v>45</v>
@@ -2949,7 +2972,7 @@
         <v>50</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD10" s="1">
         <v>90</v>
@@ -2964,7 +2987,7 @@
         <v>325</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI10" s="1">
         <v>325</v>
@@ -2973,13 +2996,13 @@
         <v>325</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL10" s="1">
         <v>0</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN10" s="2">
         <v>0.3</v>
@@ -2994,7 +3017,7 @@
         <v>50</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS10" s="1">
         <v>0</v>
@@ -3009,7 +3032,7 @@
         <v>100</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX10" s="2">
         <v>0.33</v>
@@ -3090,12 +3113,12 @@
         <v>0</v>
       </c>
       <c r="BX10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1">
         <v>19</v>
@@ -3122,13 +3145,13 @@
         <v>5500</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="1">
         <v>175</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M11" s="1">
         <v>475</v>
@@ -3149,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -3164,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y11" s="1">
         <v>45</v>
@@ -3179,7 +3202,7 @@
         <v>45</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD11" s="1">
         <v>90</v>
@@ -3194,7 +3217,7 @@
         <v>260</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI11" s="1">
         <v>260</v>
@@ -3203,7 +3226,7 @@
         <v>260</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -3212,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO11" s="1">
         <v>45</v>
@@ -3224,7 +3247,7 @@
         <v>45</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS11" s="1">
         <v>1</v>
@@ -3236,7 +3259,7 @@
         <v>47</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AW11" s="2">
         <v>0.48</v>
@@ -3320,12 +3343,12 @@
         <v>0</v>
       </c>
       <c r="BX11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1">
         <v>20</v>
@@ -3352,7 +3375,7 @@
         <v>5500</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -3379,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -3394,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y12" s="1">
         <v>30</v>
@@ -3409,7 +3432,7 @@
         <v>30</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD12" s="1">
         <v>90</v>
@@ -3424,7 +3447,7 @@
         <v>250</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI12" s="1">
         <v>250</v>
@@ -3433,7 +3456,7 @@
         <v>250</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL12" s="1">
         <v>0</v>
@@ -3442,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO12" s="1">
         <v>30</v>
@@ -3454,7 +3477,7 @@
         <v>30</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS12" s="1">
         <v>0</v>
@@ -3466,7 +3489,7 @@
         <v>47</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AW12" s="2">
         <v>0.5</v>
@@ -3550,12 +3573,12 @@
         <v>0</v>
       </c>
       <c r="BX12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1">
         <v>30</v>
@@ -3582,7 +3605,7 @@
         <v>4700</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -3609,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T13" s="1">
         <v>5</v>
@@ -3624,7 +3647,7 @@
         <v>5</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y13" s="1">
         <v>30</v>
@@ -3639,7 +3662,7 @@
         <v>30</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD13" s="1">
         <v>90</v>
@@ -3654,7 +3677,7 @@
         <v>250</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI13" s="1">
         <v>250</v>
@@ -3663,7 +3686,7 @@
         <v>250</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -3672,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO13" s="1">
         <v>0</v>
@@ -3684,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS13" s="1">
         <v>3</v>
@@ -3699,7 +3722,7 @@
         <v>100</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX13" s="2">
         <v>0.31</v>
@@ -3780,12 +3803,12 @@
         <v>0</v>
       </c>
       <c r="BX13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="1">
         <v>31</v>
@@ -3812,7 +3835,7 @@
         <v>6000</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -3839,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T14" s="1">
         <v>10</v>
@@ -3854,7 +3877,7 @@
         <v>10</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y14" s="1">
         <v>40</v>
@@ -3869,7 +3892,7 @@
         <v>40</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD14" s="1">
         <v>90</v>
@@ -3884,7 +3907,7 @@
         <v>250</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI14" s="1">
         <v>250</v>
@@ -3893,7 +3916,7 @@
         <v>250</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -3902,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO14" s="1">
         <v>0</v>
@@ -3914,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS14" s="1">
         <v>3</v>
@@ -3929,7 +3952,7 @@
         <v>100</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX14" s="2">
         <v>0.3</v>
@@ -4010,12 +4033,12 @@
         <v>0</v>
       </c>
       <c r="BX14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="1">
         <v>32</v>
@@ -4033,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -4042,7 +4065,7 @@
         <v>6000</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -4069,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T15" s="1">
         <v>5</v>
@@ -4084,7 +4107,7 @@
         <v>5</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y15" s="1">
         <v>35</v>
@@ -4099,7 +4122,7 @@
         <v>35</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD15" s="1">
         <v>90</v>
@@ -4114,7 +4137,7 @@
         <v>250</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI15" s="1">
         <v>250</v>
@@ -4123,7 +4146,7 @@
         <v>250</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL15" s="1">
         <v>0</v>
@@ -4132,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO15" s="1">
         <v>0</v>
@@ -4144,25 +4167,25 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AY15" s="1">
         <v>200</v>
@@ -4240,12 +4263,12 @@
         <v>0</v>
       </c>
       <c r="BX15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1">
         <v>33</v>
@@ -4272,7 +4295,7 @@
         <v>6700</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -4299,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T16" s="1">
         <v>15</v>
@@ -4314,7 +4337,7 @@
         <v>15</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y16" s="1">
         <v>45</v>
@@ -4329,7 +4352,7 @@
         <v>45</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD16" s="1">
         <v>90</v>
@@ -4344,7 +4367,7 @@
         <v>250</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI16" s="1">
         <v>250</v>
@@ -4353,7 +4376,7 @@
         <v>250</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL16" s="1">
         <v>0</v>
@@ -4362,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO16" s="1">
         <v>0</v>
@@ -4374,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS16" s="1">
         <v>3</v>
@@ -4389,7 +4412,7 @@
         <v>100</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX16" s="2">
         <v>0.3</v>
@@ -4470,12 +4493,12 @@
         <v>0</v>
       </c>
       <c r="BX16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -4487,7 +4510,7 @@
         <v>2021</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -4520,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="1">
         <v>90</v>
@@ -4544,7 +4567,7 @@
         <v>20</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y17" s="1">
         <v>40</v>
@@ -4559,7 +4582,7 @@
         <v>50</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD17" s="1">
         <v>90</v>
@@ -4574,7 +4597,7 @@
         <v>250</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI17" s="1">
         <v>250</v>
@@ -4583,13 +4606,13 @@
         <v>250</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL17" s="1">
         <v>0</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN17" s="2">
         <v>0.4</v>
@@ -4604,7 +4627,7 @@
         <v>50</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS17" s="1">
         <v>0</v>
@@ -4616,7 +4639,7 @@
         <v>47</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AW17" s="2">
         <v>0.45</v>
@@ -4700,12 +4723,12 @@
         <v>0</v>
       </c>
       <c r="BX17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1">
         <v>11</v>
@@ -4750,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R18" s="1">
         <v>1</v>
@@ -4768,10 +4791,10 @@
         <v>5</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X18" s="2">
         <v>0.5</v>
@@ -4783,10 +4806,10 @@
         <v>50</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC18" s="2">
         <v>0.5</v>
@@ -4804,7 +4827,7 @@
         <v>325</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI18" s="1">
         <v>325</v>
@@ -4813,25 +4836,25 @@
         <v>325</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL18" s="1">
         <v>50</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO18" s="1">
         <v>50</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AR18" s="2">
         <v>0.5</v>
@@ -4849,7 +4872,7 @@
         <v>95</v>
       </c>
       <c r="AW18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX18" s="2">
         <v>0.27</v>
@@ -4930,12 +4953,12 @@
         <v>0</v>
       </c>
       <c r="BX18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1">
         <v>15</v>
@@ -4980,10 +5003,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R19" s="1">
         <v>1</v>
@@ -5004,7 +5027,7 @@
         <v>50</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y19" s="1">
         <v>35</v>
@@ -5019,7 +5042,7 @@
         <v>50</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD19" s="1">
         <v>90</v>
@@ -5034,7 +5057,7 @@
         <v>300</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI19" s="1">
         <v>300</v>
@@ -5043,16 +5066,16 @@
         <v>300</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL19" s="1">
         <v>35</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO19" s="1">
         <v>35</v>
@@ -5064,7 +5087,7 @@
         <v>50</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS19" s="1">
         <v>2</v>
@@ -5079,13 +5102,13 @@
         <v>95</v>
       </c>
       <c r="AW19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX19" s="2">
         <v>0.27</v>
       </c>
       <c r="AY19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AZ19" s="1">
         <v>0</v>
@@ -5160,12 +5183,12 @@
         <v>0</v>
       </c>
       <c r="BX19" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1">
         <v>16</v>
@@ -5192,7 +5215,7 @@
         <v>3400</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -5219,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T20" s="1">
         <v>10</v>
@@ -5234,7 +5257,7 @@
         <v>10</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y20" s="1">
         <v>30</v>
@@ -5249,7 +5272,7 @@
         <v>30</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD20" s="1">
         <v>90</v>
@@ -5264,7 +5287,7 @@
         <v>200</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI20" s="1">
         <v>200</v>
@@ -5273,16 +5296,16 @@
         <v>200</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL20" s="1">
         <v>30</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO20" s="1">
         <v>30</v>
@@ -5294,7 +5317,7 @@
         <v>30</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS20" s="1">
         <v>2</v>
@@ -5309,13 +5332,13 @@
         <v>95</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX20" s="2">
         <v>0.27</v>
       </c>
       <c r="AY20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AZ20" s="1">
         <v>0</v>
@@ -5390,12 +5413,12 @@
         <v>0</v>
       </c>
       <c r="BX20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1">
         <v>17</v>
@@ -5428,7 +5451,7 @@
         <v>1000</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M21" s="1">
         <v>495</v>
@@ -5449,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T21" s="1">
         <v>25</v>
@@ -5464,7 +5487,7 @@
         <v>25</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y21" s="1">
         <v>50</v>
@@ -5479,7 +5502,7 @@
         <v>50</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD21" s="1">
         <v>90</v>
@@ -5494,7 +5517,7 @@
         <v>395</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI21" s="1">
         <v>395</v>
@@ -5503,7 +5526,7 @@
         <v>395</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL21" s="1">
         <v>10</v>
@@ -5512,7 +5535,7 @@
         <v>10</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO21" s="1">
         <v>40</v>
@@ -5524,7 +5547,7 @@
         <v>40</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS21" s="1">
         <v>2</v>
@@ -5539,7 +5562,7 @@
         <v>95</v>
       </c>
       <c r="AW21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX21" s="2">
         <v>0.25</v>
@@ -5620,12 +5643,12 @@
         <v>0</v>
       </c>
       <c r="BX21" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -5637,7 +5660,7 @@
         <v>2021</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -5652,7 +5675,7 @@
         <v>7550</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -5679,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
@@ -5694,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y22" s="1">
         <v>45</v>
@@ -5709,7 +5732,7 @@
         <v>45</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD22" s="1">
         <v>90</v>
@@ -5724,7 +5747,7 @@
         <v>300</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI22" s="1">
         <v>300</v>
@@ -5733,7 +5756,7 @@
         <v>300</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL22" s="1">
         <v>15</v>
@@ -5742,7 +5765,7 @@
         <v>15</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO22" s="1">
         <v>45</v>
@@ -5754,7 +5777,7 @@
         <v>45</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS22" s="1">
         <v>0</v>
@@ -5769,7 +5792,7 @@
         <v>100</v>
       </c>
       <c r="AW22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX22" s="2">
         <v>0.33</v>
@@ -5850,12 +5873,12 @@
         <v>0</v>
       </c>
       <c r="BX22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
@@ -5867,7 +5890,7 @@
         <v>2021</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="1">
         <v>30</v>
@@ -5882,7 +5905,7 @@
         <v>5900</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -5909,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T23" s="1">
         <v>0</v>
@@ -5924,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y23" s="1">
         <v>40</v>
@@ -5939,7 +5962,7 @@
         <v>40</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD23" s="1">
         <v>90</v>
@@ -5954,7 +5977,7 @@
         <v>250</v>
       </c>
       <c r="AH23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI23" s="1">
         <v>250</v>
@@ -5963,7 +5986,7 @@
         <v>250</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL23" s="1">
         <v>15</v>
@@ -5972,7 +5995,7 @@
         <v>15</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO23" s="1">
         <v>40</v>
@@ -5984,7 +6007,7 @@
         <v>40</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS23" s="1">
         <v>0</v>
@@ -5999,7 +6022,7 @@
         <v>100</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX23" s="2">
         <v>0.33</v>
@@ -6080,12 +6103,12 @@
         <v>0</v>
       </c>
       <c r="BX23" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -6097,7 +6120,7 @@
         <v>2021</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1">
         <v>90</v>
@@ -6112,7 +6135,7 @@
         <v>4700</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -6139,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T24" s="1">
         <v>0</v>
@@ -6154,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y24" s="1">
         <v>30</v>
@@ -6169,7 +6192,7 @@
         <v>30</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD24" s="1">
         <v>90</v>
@@ -6184,7 +6207,7 @@
         <v>200</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI24" s="1">
         <v>200</v>
@@ -6193,7 +6216,7 @@
         <v>200</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL24" s="1">
         <v>15</v>
@@ -6202,7 +6225,7 @@
         <v>15</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO24" s="1">
         <v>30</v>
@@ -6214,7 +6237,7 @@
         <v>30</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS24" s="1">
         <v>0</v>
@@ -6229,7 +6252,7 @@
         <v>100</v>
       </c>
       <c r="AW24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX24" s="2">
         <v>0.33</v>
@@ -6310,12 +6333,12 @@
         <v>0</v>
       </c>
       <c r="BX24" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="1">
         <v>13</v>
@@ -6360,10 +6383,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
@@ -6378,10 +6401,10 @@
         <v>10</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X25" s="2">
         <v>0.4</v>
@@ -6393,10 +6416,10 @@
         <v>45</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC25" s="2">
         <v>0.4</v>
@@ -6414,7 +6437,7 @@
         <v>295</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI25" s="1">
         <v>295</v>
@@ -6423,13 +6446,13 @@
         <v>295</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL25" s="1">
         <v>0</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN25" s="2">
         <v>0.4</v>
@@ -6438,10 +6461,10 @@
         <v>45</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AR25" s="2">
         <v>0.4</v>
@@ -6459,7 +6482,7 @@
         <v>100</v>
       </c>
       <c r="AW25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX25" s="2">
         <v>0.28000000000000003</v>
@@ -6540,12 +6563,12 @@
         <v>0</v>
       </c>
       <c r="BX25" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -6572,7 +6595,7 @@
         <v>7550</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -6599,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T26" s="1">
         <v>15</v>
@@ -6614,7 +6637,7 @@
         <v>15</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y26" s="1">
         <v>50</v>
@@ -6629,7 +6652,7 @@
         <v>50</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD26" s="1">
         <v>90</v>
@@ -6644,7 +6667,7 @@
         <v>315</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI26" s="1">
         <v>315</v>
@@ -6653,7 +6676,7 @@
         <v>315</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL26" s="1">
         <v>0</v>
@@ -6662,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO26" s="1">
         <v>50</v>
@@ -6674,7 +6697,7 @@
         <v>50</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS26" s="1">
         <v>2</v>
@@ -6689,7 +6712,7 @@
         <v>100</v>
       </c>
       <c r="AW26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX26" s="2">
         <v>0.33</v>
@@ -6770,12 +6793,12 @@
         <v>0</v>
       </c>
       <c r="BX26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="1">
         <v>10</v>
@@ -6802,19 +6825,19 @@
         <v>7550</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K27" s="1">
         <v>1000</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M27" s="1">
         <v>795</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
@@ -6823,13 +6846,13 @@
         <v>795</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T27" s="1">
         <v>15</v>
@@ -6844,7 +6867,7 @@
         <v>15</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y27" s="1">
         <v>50</v>
@@ -6859,7 +6882,7 @@
         <v>50</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD27" s="1">
         <v>90</v>
@@ -6874,7 +6897,7 @@
         <v>295</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI27" s="1">
         <v>295</v>
@@ -6883,7 +6906,7 @@
         <v>295</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL27" s="1">
         <v>0</v>
@@ -6892,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO27" s="1">
         <v>50</v>
@@ -6904,7 +6927,7 @@
         <v>50</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS27" s="1">
         <v>2</v>
@@ -6919,7 +6942,7 @@
         <v>100</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX27" s="2">
         <v>0.33</v>
@@ -7000,12 +7023,12 @@
         <v>0</v>
       </c>
       <c r="BX27" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1">
         <v>12</v>
@@ -7032,19 +7055,19 @@
         <v>6700</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K28" s="1">
         <v>1000</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M28" s="1">
         <v>795</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O28" s="1">
         <v>1</v>
@@ -7053,13 +7076,13 @@
         <v>795</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R28" s="1">
         <v>1</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
@@ -7074,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y28" s="1">
         <v>40</v>
@@ -7089,7 +7112,7 @@
         <v>40</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD28" s="1">
         <v>90</v>
@@ -7104,7 +7127,7 @@
         <v>295</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI28" s="1">
         <v>295</v>
@@ -7113,7 +7136,7 @@
         <v>295</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL28" s="1">
         <v>0</v>
@@ -7122,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="AN28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO28" s="1">
         <v>40</v>
@@ -7134,7 +7157,7 @@
         <v>40</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS28" s="1">
         <v>0</v>
@@ -7149,7 +7172,7 @@
         <v>100</v>
       </c>
       <c r="AW28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX28" s="2">
         <v>0.33</v>
@@ -7230,12 +7253,12 @@
         <v>0</v>
       </c>
       <c r="BX28" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1">
         <v>7</v>
@@ -7262,13 +7285,13 @@
         <v>6700</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M29" s="1">
         <v>430</v>
@@ -7289,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T29" s="1">
         <v>20</v>
@@ -7304,7 +7327,7 @@
         <v>20</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y29" s="1">
         <v>50</v>
@@ -7319,7 +7342,7 @@
         <v>50</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD29" s="1">
         <v>90</v>
@@ -7334,7 +7357,7 @@
         <v>330</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI29" s="1">
         <v>330</v>
@@ -7343,7 +7366,7 @@
         <v>330</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -7352,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO29" s="1">
         <v>50</v>
@@ -7364,7 +7387,7 @@
         <v>50</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS29" s="1">
         <v>10</v>
@@ -7379,13 +7402,13 @@
         <v>95</v>
       </c>
       <c r="AW29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX29" s="2">
         <v>0.25</v>
       </c>
       <c r="AY29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AZ29" s="1">
         <v>4</v>
@@ -7460,12 +7483,12 @@
         <v>0</v>
       </c>
       <c r="BX29" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1">
         <v>9</v>
@@ -7492,7 +7515,7 @@
         <v>6700</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -7519,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T30" s="1">
         <v>20</v>
@@ -7534,7 +7557,7 @@
         <v>20</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y30" s="1">
         <v>50</v>
@@ -7549,7 +7572,7 @@
         <v>50</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD30" s="1">
         <v>90</v>
@@ -7564,7 +7587,7 @@
         <v>325</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI30" s="1">
         <v>325</v>
@@ -7573,7 +7596,7 @@
         <v>325</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL30" s="1">
         <v>0</v>
@@ -7582,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO30" s="1">
         <v>50</v>
@@ -7594,7 +7617,7 @@
         <v>50</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS30" s="1">
         <v>12</v>
@@ -7609,13 +7632,13 @@
         <v>95</v>
       </c>
       <c r="AW30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX30" s="2">
         <v>0.26</v>
       </c>
       <c r="AY30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AZ30" s="1">
         <v>4</v>
@@ -7690,12 +7713,12 @@
         <v>0</v>
       </c>
       <c r="BX30" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="1">
         <v>10</v>
@@ -7722,7 +7745,7 @@
         <v>6950</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -7749,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T31" s="1">
         <v>5</v>
@@ -7764,7 +7787,7 @@
         <v>5</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y31" s="1">
         <v>45</v>
@@ -7779,7 +7802,7 @@
         <v>45</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD31" s="1">
         <v>90</v>
@@ -7794,7 +7817,7 @@
         <v>325</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI31" s="1">
         <v>325</v>
@@ -7803,7 +7826,7 @@
         <v>325</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL31" s="1">
         <v>0</v>
@@ -7812,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO31" s="1">
         <v>45</v>
@@ -7824,7 +7847,7 @@
         <v>45</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS31" s="1">
         <v>0</v>
@@ -7839,7 +7862,7 @@
         <v>95</v>
       </c>
       <c r="AW31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX31" s="2">
         <v>0.28000000000000003</v>
@@ -7920,12 +7943,12 @@
         <v>0</v>
       </c>
       <c r="BX31" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="1">
         <v>11</v>
@@ -7952,7 +7975,7 @@
         <v>6700</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -7979,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T32" s="1">
         <v>5</v>
@@ -7994,7 +8017,7 @@
         <v>5</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y32" s="1">
         <v>40</v>
@@ -8009,7 +8032,7 @@
         <v>40</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD32" s="1">
         <v>90</v>
@@ -8024,7 +8047,7 @@
         <v>300</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI32" s="1">
         <v>300</v>
@@ -8033,7 +8056,7 @@
         <v>300</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL32" s="1">
         <v>0</v>
@@ -8042,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="AN32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO32" s="1">
         <v>40</v>
@@ -8054,7 +8077,7 @@
         <v>40</v>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS32" s="1">
         <v>0</v>
@@ -8069,7 +8092,7 @@
         <v>95</v>
       </c>
       <c r="AW32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX32" s="2">
         <v>0.25</v>
@@ -8150,7 +8173,237 @@
         <v>0</v>
       </c>
       <c r="BX32" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="1">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2021</v>
+      </c>
+      <c r="E33" s="5">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>49</v>
+      </c>
+      <c r="G33" s="1">
+        <v>300</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5500</v>
+      </c>
+      <c r="J33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>465</v>
+      </c>
+      <c r="N33" s="1">
+        <v>4</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T33" s="1">
+        <v>5</v>
+      </c>
+      <c r="U33" s="1">
+        <v>5</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>90</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>325</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>325</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>325</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>50</v>
+      </c>
+      <c r="AM33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>50</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>10</v>
+      </c>
+      <c r="AU33" s="1">
+        <v>42</v>
+      </c>
+      <c r="AV33" s="1">
+        <v>95</v>
+      </c>
+      <c r="AW33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX33" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="AY33" s="1">
+        <v>200</v>
+      </c>
+      <c r="AZ33" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX33" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
